--- a/data/trans_orig/P44-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>48424</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34414</v>
+        <v>35078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63875</v>
+        <v>62432</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07447565663032525</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0529285115601147</v>
+        <v>0.05395014184106671</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09823963924647859</v>
+        <v>0.09602021880820515</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -764,19 +764,19 @@
         <v>66021</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51587</v>
+        <v>50714</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82489</v>
+        <v>83666</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06521708097604074</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05095800495472066</v>
+        <v>0.05009613925159737</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08148379608767083</v>
+        <v>0.08264638460310159</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -785,19 +785,19 @@
         <v>114446</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94600</v>
+        <v>92417</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136657</v>
+        <v>139717</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06883801630441477</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05690097289137656</v>
+        <v>0.05558833646225288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08219798362294489</v>
+        <v>0.08403865632639543</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>601776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>586325</v>
+        <v>587768</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>615786</v>
+        <v>615122</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9255243433696747</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9017603607535215</v>
+        <v>0.9039797811917949</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9470714884398853</v>
+        <v>0.9460498581589333</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>884</v>
@@ -835,19 +835,19 @@
         <v>946313</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>929845</v>
+        <v>928668</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>960747</v>
+        <v>961620</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9347829190239593</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.918516203912329</v>
+        <v>0.9173536153968983</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9490419950452793</v>
+        <v>0.9499038607484026</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1438</v>
@@ -856,19 +856,19 @@
         <v>1548088</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1525877</v>
+        <v>1522817</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1567934</v>
+        <v>1570117</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9311619836955852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9178020163770552</v>
+        <v>0.9159613436736046</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9430990271086234</v>
+        <v>0.9444116635377472</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>49747</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36861</v>
+        <v>37639</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68896</v>
+        <v>65721</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1139509892424099</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08443551474941989</v>
+        <v>0.08621785446604642</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1578142375869033</v>
+        <v>0.1505434594330858</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -981,19 +981,19 @@
         <v>30442</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21488</v>
+        <v>20335</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44161</v>
+        <v>44174</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07824637953720137</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05523177323684227</v>
+        <v>0.05226761388537129</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1135094577459886</v>
+        <v>0.1135436630455929</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -1002,19 +1002,19 @@
         <v>80188</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63874</v>
+        <v>62654</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100190</v>
+        <v>99775</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09712602757791408</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07736515339575437</v>
+        <v>0.07588777193970885</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1213522483042353</v>
+        <v>0.1208495157199087</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>386814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>367665</v>
+        <v>370840</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>399700</v>
+        <v>398922</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8860490107575901</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8421857624130966</v>
+        <v>0.8494565405669141</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9155644852505801</v>
+        <v>0.9137821455339536</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>320</v>
@@ -1052,19 +1052,19 @@
         <v>358608</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>344889</v>
+        <v>344876</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>367562</v>
+        <v>368715</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9217536204627986</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8864905422540114</v>
+        <v>0.8864563369544066</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9447682267631577</v>
+        <v>0.947732386114628</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>668</v>
@@ -1073,19 +1073,19 @@
         <v>745423</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>725421</v>
+        <v>725836</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>761737</v>
+        <v>762957</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9028739724220859</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8786477516957647</v>
+        <v>0.8791504842800912</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9226348466042456</v>
+        <v>0.924112228060291</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>15586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8608</v>
+        <v>9102</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25386</v>
+        <v>25273</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1485472859508727</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08204330742231099</v>
+        <v>0.08675020893235094</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2419557126704839</v>
+        <v>0.2408734619248845</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1198,19 +1198,19 @@
         <v>12489</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7252</v>
+        <v>6882</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21136</v>
+        <v>21138</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1982888842078598</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1151423823056814</v>
+        <v>0.1092638269833053</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3355625629459599</v>
+        <v>0.3355949955469689</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1219,19 +1219,19 @@
         <v>28075</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18350</v>
+        <v>18847</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39091</v>
+        <v>39050</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1672064608538548</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1092880041878244</v>
+        <v>0.1122480104804321</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2328139486627303</v>
+        <v>0.2325689722510223</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>89336</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79536</v>
+        <v>79649</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>96314</v>
+        <v>95820</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8514527140491273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7580442873295161</v>
+        <v>0.7591265380751158</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.917956692577689</v>
+        <v>0.9132497910676493</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -1269,19 +1269,19 @@
         <v>50497</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41850</v>
+        <v>41848</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55734</v>
+        <v>56104</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8017111157921402</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6644374370540408</v>
+        <v>0.6644050044530305</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8848576176943188</v>
+        <v>0.8907361730166943</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>117</v>
@@ -1290,19 +1290,19 @@
         <v>139833</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>128817</v>
+        <v>128858</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>149558</v>
+        <v>149061</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8327935391461452</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7671860513372697</v>
+        <v>0.7674310277489776</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8907119958121756</v>
+        <v>0.8877519895195679</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>113756</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91515</v>
+        <v>93874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>136380</v>
+        <v>138598</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09545868588841383</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07679473162933902</v>
+        <v>0.07877407590280144</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1144433624749583</v>
+        <v>0.1163043504765439</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -1415,19 +1415,19 @@
         <v>108953</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88098</v>
+        <v>90431</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>132553</v>
+        <v>131388</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07440239838820131</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06016080411316693</v>
+        <v>0.06175410211520713</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09051879128924192</v>
+        <v>0.08972323713530637</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>197</v>
@@ -1436,19 +1436,19 @@
         <v>222709</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>196995</v>
+        <v>193305</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>257763</v>
+        <v>255278</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08384965936936049</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07416849501102736</v>
+        <v>0.07277919344804215</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09704756862754188</v>
+        <v>0.0961116632567951</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1077927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1055303</v>
+        <v>1053085</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1100168</v>
+        <v>1097809</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9045413141115862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8855566375250417</v>
+        <v>0.8836956495234561</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9232052683706604</v>
+        <v>0.9212259240971985</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1247</v>
@@ -1486,19 +1486,19 @@
         <v>1355417</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1331817</v>
+        <v>1332982</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1376272</v>
+        <v>1373939</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9255976016117987</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9094812087107582</v>
+        <v>0.9102767628646936</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9398391958868332</v>
+        <v>0.9382458978847923</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2223</v>
@@ -1507,19 +1507,19 @@
         <v>2433344</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2398290</v>
+        <v>2400775</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2459058</v>
+        <v>2462748</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9161503406306395</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9029524313724586</v>
+        <v>0.9038883367432048</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9258315049889727</v>
+        <v>0.9272208065519578</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>55291</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43562</v>
+        <v>43490</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70497</v>
+        <v>71066</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1005970070953867</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0792568145512331</v>
+        <v>0.07912681477518314</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1282628274040821</v>
+        <v>0.1292986236117784</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -1871,19 +1871,19 @@
         <v>64267</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49568</v>
+        <v>50066</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82561</v>
+        <v>80659</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0791849780988487</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06107311370315886</v>
+        <v>0.06168673816426504</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1017246191402817</v>
+        <v>0.09938067531907933</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>115</v>
@@ -1892,19 +1892,19 @@
         <v>119558</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100003</v>
+        <v>99791</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142708</v>
+        <v>139883</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08783049506730256</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07346465467189664</v>
+        <v>0.07330937257321904</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1048372053928945</v>
+        <v>0.1027614144543483</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>494335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>479129</v>
+        <v>478560</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>506064</v>
+        <v>506136</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8994029929046132</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8717371725959175</v>
+        <v>0.8707013763882216</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9207431854487669</v>
+        <v>0.9208731852248169</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>650</v>
@@ -1942,19 +1942,19 @@
         <v>747345</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>729051</v>
+        <v>730953</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>762044</v>
+        <v>761546</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9208150219011513</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8982753808597185</v>
+        <v>0.9006193246809207</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9389268862968412</v>
+        <v>0.9383132618357349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1155</v>
@@ -1963,19 +1963,19 @@
         <v>1241679</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1218529</v>
+        <v>1221354</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1261234</v>
+        <v>1261446</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9121695049326974</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8951627946071057</v>
+        <v>0.8972385855456518</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9265353453281037</v>
+        <v>0.9266906274267811</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>79688</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63563</v>
+        <v>64079</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97763</v>
+        <v>98898</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1167611927174308</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09313418784045498</v>
+        <v>0.09389007921466885</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1432441178590722</v>
+        <v>0.1449073983237912</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -2088,19 +2088,19 @@
         <v>37463</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26673</v>
+        <v>26836</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52036</v>
+        <v>51269</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05694214874354735</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04054254451499879</v>
+        <v>0.04079056189578521</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07909327992158532</v>
+        <v>0.07792740382183612</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -2109,19 +2109,19 @@
         <v>117151</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96128</v>
+        <v>97150</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>141261</v>
+        <v>140487</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08740017300855117</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07171604022072869</v>
+        <v>0.07247852843875914</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1053875897326032</v>
+        <v>0.1048097116497946</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>602801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>584726</v>
+        <v>583591</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>618926</v>
+        <v>618410</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8832388072825692</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8567558821409278</v>
+        <v>0.8550926016762087</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9068658121595449</v>
+        <v>0.906109920785331</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>541</v>
@@ -2159,19 +2159,19 @@
         <v>620445</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>605872</v>
+        <v>606639</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>631235</v>
+        <v>631072</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9430578512564527</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9209067200784147</v>
+        <v>0.9220725961781642</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9594574554850013</v>
+        <v>0.9592094381042151</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1104</v>
@@ -2180,19 +2180,19 @@
         <v>1223245</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1199135</v>
+        <v>1199909</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1244268</v>
+        <v>1243246</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9125998269914488</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8946124102673968</v>
+        <v>0.8951902883502055</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9282839597792714</v>
+        <v>0.9275214715612409</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>28943</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18995</v>
+        <v>19841</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40726</v>
+        <v>41159</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1782106139892931</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1169570540183945</v>
+        <v>0.1221641975647766</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2507606292588831</v>
+        <v>0.2534268578811028</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -2305,19 +2305,19 @@
         <v>16143</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9328</v>
+        <v>9718</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26235</v>
+        <v>25626</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.132636352445404</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07663784222051538</v>
+        <v>0.0798412329499313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2155526453781711</v>
+        <v>0.2105427594963099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -2326,19 +2326,19 @@
         <v>45087</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32943</v>
+        <v>33682</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58725</v>
+        <v>60021</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.158687645464914</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1159463042958853</v>
+        <v>0.1185456827138098</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2066897541660583</v>
+        <v>0.2112518117033319</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>133468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>121685</v>
+        <v>121252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143416</v>
+        <v>142570</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8217893860107069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7492393707411158</v>
+        <v>0.7465731421188972</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8830429459816052</v>
+        <v>0.8778358024352234</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -2376,19 +2376,19 @@
         <v>105569</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>95477</v>
+        <v>96086</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>112384</v>
+        <v>111994</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8673636475545961</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7844473546218289</v>
+        <v>0.7894572405036911</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9233621577794846</v>
+        <v>0.9201587670500692</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>210</v>
@@ -2397,19 +2397,19 @@
         <v>239036</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>225398</v>
+        <v>224102</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>251180</v>
+        <v>250441</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.841312354535086</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7933102458339416</v>
+        <v>0.7887481882966682</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8840536957041146</v>
+        <v>0.8814543172861907</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>163922</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>140499</v>
+        <v>141543</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>189487</v>
+        <v>189536</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1175469972747078</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1007502021040722</v>
+        <v>0.1014993455265285</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1358794099769646</v>
+        <v>0.1359141693062428</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>102</v>
@@ -2522,19 +2522,19 @@
         <v>117874</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96257</v>
+        <v>97890</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143633</v>
+        <v>141965</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07407694268767753</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06049227947254662</v>
+        <v>0.06151867982265467</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09026503961923538</v>
+        <v>0.08921714918547398</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>260</v>
@@ -2543,19 +2543,19 @@
         <v>281796</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>248071</v>
+        <v>251073</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>316815</v>
+        <v>314300</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09438003888075018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08308484094505712</v>
+        <v>0.08409029211005008</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1061087508254356</v>
+        <v>0.1052665761957432</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>1230604</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1205039</v>
+        <v>1204990</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1254027</v>
+        <v>1252983</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8824530027252921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8641205900230354</v>
+        <v>0.8640858306937571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8992497978959277</v>
+        <v>0.8985006544734714</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1281</v>
@@ -2593,19 +2593,19 @@
         <v>1473357</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1447598</v>
+        <v>1449266</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1494974</v>
+        <v>1493341</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9259230573123225</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9097349603807652</v>
+        <v>0.910782850814526</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9395077205274536</v>
+        <v>0.9384813201773453</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2469</v>
@@ -2614,19 +2614,19 @@
         <v>2703961</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2668942</v>
+        <v>2671457</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2737686</v>
+        <v>2734684</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9056199611192498</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8938912491745644</v>
+        <v>0.8947334238042568</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.916915159054943</v>
+        <v>0.91590970788995</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>151674</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>134720</v>
+        <v>134752</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168202</v>
+        <v>168331</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.348748310851939</v>
+        <v>0.3487483108519389</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3097652776613181</v>
+        <v>0.3098380724210488</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3867514651046715</v>
+        <v>0.387047660881231</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>328</v>
@@ -2978,19 +2978,19 @@
         <v>188067</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>171286</v>
+        <v>170290</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>205916</v>
+        <v>204766</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.272046895522399</v>
+        <v>0.2720468955223991</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2477720138699381</v>
+        <v>0.2463312829638677</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2978657150731527</v>
+        <v>0.2962026087467691</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>534</v>
@@ -2999,19 +2999,19 @@
         <v>339742</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>313408</v>
+        <v>314030</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>364470</v>
+        <v>365662</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3016666724619135</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2782842221667188</v>
+        <v>0.2788362661884763</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3236236584989884</v>
+        <v>0.3246823042164413</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>283237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266709</v>
+        <v>266580</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>300191</v>
+        <v>300159</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.651251689148061</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6132485348953285</v>
+        <v>0.6129523391187689</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6902347223386819</v>
+        <v>0.6901619275789513</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>927</v>
@@ -3049,19 +3049,19 @@
         <v>503238</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>485389</v>
+        <v>486539</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>520019</v>
+        <v>521015</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.727953104477601</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7021342849268476</v>
+        <v>0.7037973912532313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7522279861300621</v>
+        <v>0.7536687170361326</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1297</v>
@@ -3070,19 +3070,19 @@
         <v>786474</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>761746</v>
+        <v>760554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>812808</v>
+        <v>812186</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6983333275380866</v>
+        <v>0.6983333275380865</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6763763415010114</v>
+        <v>0.6753176957835588</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7217157778332811</v>
+        <v>0.7211637338115233</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>291623</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>266527</v>
+        <v>264862</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>319778</v>
+        <v>318817</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3397921260337665</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.310550823126809</v>
+        <v>0.3086105691817236</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3725975126926653</v>
+        <v>0.3714775264457874</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>413</v>
@@ -3195,19 +3195,19 @@
         <v>244815</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>225316</v>
+        <v>227395</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>265891</v>
+        <v>266931</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3032319050500661</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2790802866468435</v>
+        <v>0.2816551632878538</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3293375675795844</v>
+        <v>0.3306256006374082</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>759</v>
@@ -3216,19 +3216,19 @@
         <v>536437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>503072</v>
+        <v>504274</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>570513</v>
+        <v>567901</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3220705065949919</v>
+        <v>0.3220705065949918</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.30203857644539</v>
+        <v>0.3027600887054995</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3425293058332635</v>
+        <v>0.3409610253086295</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>566616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>538461</v>
+        <v>539422</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>591712</v>
+        <v>593377</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6602078739662335</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6274024873073347</v>
+        <v>0.6285224735542125</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6894491768731908</v>
+        <v>0.6913894308182765</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>974</v>
@@ -3266,19 +3266,19 @@
         <v>562537</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>541461</v>
+        <v>540421</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>582036</v>
+        <v>579957</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6967680949499339</v>
+        <v>0.6967680949499337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6706624324204155</v>
+        <v>0.6693743993625917</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7209197133531567</v>
+        <v>0.7183448367121462</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1629</v>
@@ -3287,19 +3287,19 @@
         <v>1129153</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1095077</v>
+        <v>1097689</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1162518</v>
+        <v>1161316</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6779294934050082</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6574706941667366</v>
+        <v>0.6590389746913706</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.69796142355461</v>
+        <v>0.6972399112945006</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>130103</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114174</v>
+        <v>115325</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>145627</v>
+        <v>147089</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4393592922065168</v>
+        <v>0.4393592922065167</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3855668652380178</v>
+        <v>0.3894541278308398</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4917853691679224</v>
+        <v>0.4967217445275585</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>159</v>
@@ -3412,19 +3412,19 @@
         <v>97120</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85801</v>
+        <v>85645</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107983</v>
+        <v>109051</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3915060631660118</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3458776585306492</v>
+        <v>0.3452505285374388</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4352965766338935</v>
+        <v>0.43960193660673</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>319</v>
@@ -3433,19 +3433,19 @@
         <v>227223</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>206125</v>
+        <v>206129</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>245809</v>
+        <v>246739</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4175454405046974</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3787764520933295</v>
+        <v>0.3787839517881096</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4516995465608703</v>
+        <v>0.4534092928197999</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>166017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>150493</v>
+        <v>149031</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>181946</v>
+        <v>180795</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5606407077934833</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5082146308320775</v>
+        <v>0.5032782554724412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6144331347619821</v>
+        <v>0.6105458721691599</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>259</v>
@@ -3483,19 +3483,19 @@
         <v>150947</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>140084</v>
+        <v>139016</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162266</v>
+        <v>162422</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6084939368339881</v>
+        <v>0.6084939368339882</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5647034233661065</v>
+        <v>0.5603980633932699</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.654122341469351</v>
+        <v>0.6547494714625612</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>454</v>
@@ -3504,19 +3504,19 @@
         <v>316964</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>298378</v>
+        <v>297448</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>338062</v>
+        <v>338058</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5824545594953027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5483004534391297</v>
+        <v>0.5465907071802002</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6212235479066706</v>
+        <v>0.6212160482118904</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>573400</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>540455</v>
+        <v>537206</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>615293</v>
+        <v>609955</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3607948351336682</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3400653183620163</v>
+        <v>0.3380205836077132</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3871549380461618</v>
+        <v>0.3837957283360327</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>900</v>
@@ -3629,19 +3629,19 @@
         <v>530002</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>502518</v>
+        <v>505528</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>562837</v>
+        <v>561033</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.303426302973197</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2876917896666327</v>
+        <v>0.2894151803945957</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.322224229853211</v>
+        <v>0.3211912934305481</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1612</v>
@@ -3650,19 +3650,19 @@
         <v>1103402</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1058798</v>
+        <v>1058263</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1153376</v>
+        <v>1157478</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3307567046821122</v>
+        <v>0.330756704682112</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3173859775844328</v>
+        <v>0.3172256239123473</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3457367814431457</v>
+        <v>0.3469665672623455</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>1015869</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>973976</v>
+        <v>979314</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1048814</v>
+        <v>1052063</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6392051648663319</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6128450619538384</v>
+        <v>0.6162042716639674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.659934681637984</v>
+        <v>0.6619794163922867</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2160</v>
@@ -3700,19 +3700,19 @@
         <v>1216722</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1183887</v>
+        <v>1185691</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1244206</v>
+        <v>1241196</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6965736970268029</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.677775770146789</v>
+        <v>0.6788087065694517</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7123082103333669</v>
+        <v>0.7105848196054039</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3380</v>
@@ -3721,19 +3721,19 @@
         <v>2232592</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2182618</v>
+        <v>2178516</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2277196</v>
+        <v>2277731</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6692432953178878</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6542632185568542</v>
+        <v>0.6530334327376546</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6826140224155671</v>
+        <v>0.6827743760876527</v>
       </c>
     </row>
     <row r="15">
